--- a/xls/guildConfig.xlsx
+++ b/xls/guildConfig.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12330" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="12330" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="@职位权限" sheetId="1" r:id="rId1"/>
     <sheet name="@配置表" sheetId="3" r:id="rId2"/>
     <sheet name="代对表=" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>id[!.][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,11 +326,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欧元兑换贡献点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eourExchange[.][funcFloat]</t>
+    <t>最大等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLevel[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速时间兑换资金（小时）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -338,11 +342,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxLevel[.][funcInt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大等级</t>
+    <t>解散时间（天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>euroPer[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧元兑换贡献点一份欧元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一份欧元兑换贡献点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contributionPer[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedTimeFunds[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismissTime[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每份保护时间钻石（小时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protectPer[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天拉拢次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxCounselor[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大顾问数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ropeTime[.][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -829,7 +877,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -879,7 +927,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -929,7 +977,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -979,7 +1027,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -1029,7 +1077,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1079,7 +1127,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -1136,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1149,13 +1197,20 @@
     <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.75" customWidth="1"/>
     <col min="9" max="10" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1181,16 +1236,34 @@
         <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>59</v>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1219,13 +1292,31 @@
         <v>55</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1236,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E3" s="2">
         <v>50</v>
@@ -1245,19 +1336,37 @@
         <v>100</v>
       </c>
       <c r="G3" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2">
-        <v>1900</v>
+        <v>1999</v>
       </c>
       <c r="I3" s="2">
         <v>7</v>
       </c>
       <c r="J3" s="2">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="K3" s="2">
+        <v>50</v>
+      </c>
+      <c r="L3" s="2">
         <v>8</v>
+      </c>
+      <c r="M3" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N3" s="2">
+        <v>7</v>
+      </c>
+      <c r="O3" s="2">
+        <v>200</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/xls/guildConfig.xlsx
+++ b/xls/guildConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>id[!.][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,15 +382,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxCounselor[.][funcInt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大顾问数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ropeTime[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解雇顾问降低好友度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireAdviser[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单页事件数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventNum[.][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1184,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1207,10 +1215,11 @@
     <col min="14" max="14" width="23.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.875" customWidth="1"/>
+    <col min="17" max="17" width="23.625" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1257,13 +1266,16 @@
         <v>68</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>70</v>
+      <c r="R1" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1315,8 +1327,11 @@
       <c r="Q2" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="R2" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1366,7 +1381,10 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2">
-        <v>6</v>
+        <v>500</v>
+      </c>
+      <c r="R3" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
